--- a/assets/documents/Trimestre_I/05_Requerimientos SGA.xlsx
+++ b/assets/documents/Trimestre_I/05_Requerimientos SGA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630" tabRatio="772" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630" tabRatio="772" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja de Control" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="132">
   <si>
     <t>Funcionalidad</t>
   </si>
@@ -214,9 +214,6 @@
     <t>Salida</t>
   </si>
   <si>
-    <t>El sistema debe mostrar el logo de la empresa que lo llevara a la pantalla inicial en la esquina superior izquierda</t>
-  </si>
-  <si>
     <t>Ninguna</t>
   </si>
   <si>
@@ -250,24 +247,6 @@
     <t>SGA</t>
   </si>
   <si>
-    <t>El sistema debe permitir al administrador el acceso al modulo de usuarios</t>
-  </si>
-  <si>
-    <t>Solo a aquellos con el rol de administrador</t>
-  </si>
-  <si>
-    <t>El sistema debe permitir consultar/listar los usuarios registrados en el sistema</t>
-  </si>
-  <si>
-    <t>El sistema de permitir actualizar los datos de los usuarios registrados</t>
-  </si>
-  <si>
-    <t>El sistema debe permitir eliminar los usuarios registrados</t>
-  </si>
-  <si>
-    <t>El sistema debe permitir registrar nuevos usuarios</t>
-  </si>
-  <si>
     <t xml:space="preserve">El sistema debe permitir cerrar sesión correctamente </t>
   </si>
   <si>
@@ -286,9 +265,6 @@
     <t>El sistema debe permitir listar productos</t>
   </si>
   <si>
-    <t>El sistema debe permitir la consulta del Stock</t>
-  </si>
-  <si>
     <t>El sistema debe permitir el facturar una venta</t>
   </si>
   <si>
@@ -419,6 +395,42 @@
   </si>
   <si>
     <t>El sistema debe ser diseñado con la capacidad de escalar horizontal y verticalmente para manejar un aumento en la carga de trabajo y el volumen de datos, sin requerir cambios significativos en la arquitectura o la infraestructura subyacente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El sistema debe permitir al administrador consultar usuarios </t>
+  </si>
+  <si>
+    <t>El sistema debe permitir al administrador registrar usuarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El sistema debe permitir al administrador eliminar usuarios </t>
+  </si>
+  <si>
+    <t>El sistema de permitir al administrador actualizar los usuarios</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir ingresar multiples registros sin necesidad de hacerlos uno por uno</t>
+  </si>
+  <si>
+    <t>Se planea añadir la funcion para poder realizar multiples ventas en un solo registro</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir visualizar el encargado de realizar la venta</t>
+  </si>
+  <si>
+    <t>Se planea añadir la funcion para poder visualizar el usuario que realizo la venta</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir generar un reporte con los productos registrados</t>
+  </si>
+  <si>
+    <t>Se planea añadir la funcion para poder generar un reporte detallado con los registros</t>
+  </si>
+  <si>
+    <t>¿Se ha establecido funciones para la generacion de reportes, documentos y/o tablas?</t>
+  </si>
+  <si>
+    <t>Se planea implementarlo despues del 20/04/2024</t>
   </si>
 </sst>
 </file>
@@ -1340,47 +1352,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1412,26 +1406,44 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1831,91 +1843,91 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
     </row>
     <row r="3" spans="2:6" ht="30">
-      <c r="B3" s="90" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
+      <c r="B3" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
     </row>
     <row r="4" spans="2:6" ht="30">
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
     </row>
     <row r="5" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
     </row>
     <row r="6" spans="2:6" ht="17.25" thickTop="1">
       <c r="F6" s="10"/>
     </row>
     <row r="8" spans="2:6" ht="30">
-      <c r="B8" s="92" t="s">
+      <c r="B8" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
     </row>
     <row r="10" spans="2:6" ht="17.25" thickBot="1"/>
     <row r="11" spans="2:6" ht="18.75" thickTop="1">
       <c r="B11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="86" t="s">
+      <c r="C11" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="88"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="62"/>
     </row>
     <row r="12" spans="2:6" ht="18">
       <c r="B12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="76"/>
+      <c r="C12" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="70"/>
     </row>
     <row r="13" spans="2:6" ht="18.75" thickBot="1">
       <c r="B13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="74" t="s">
+      <c r="C13" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="75"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="76"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="70"/>
     </row>
     <row r="14" spans="2:6" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="B14" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="74" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="78"/>
+      <c r="C14" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="72"/>
       <c r="E14" s="13" t="s">
         <v>18</v>
       </c>
@@ -1927,10 +1939,10 @@
       <c r="B15" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="79" t="s">
+      <c r="C15" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="80"/>
+      <c r="D15" s="74"/>
       <c r="E15" s="15" t="s">
         <v>22</v>
       </c>
@@ -1942,10 +1954,10 @@
       <c r="B16" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="81" t="s">
+      <c r="C16" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="82"/>
+      <c r="D16" s="76"/>
       <c r="E16" s="17" t="s">
         <v>25</v>
       </c>
@@ -1955,8 +1967,8 @@
     </row>
     <row r="17" spans="2:16" ht="17.25" thickTop="1">
       <c r="B17" s="19"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
     </row>
     <row r="18" spans="2:16" ht="19.899999999999999" customHeight="1"/>
     <row r="19" spans="2:16" ht="19.899999999999999" customHeight="1">
@@ -1975,10 +1987,10 @@
       <c r="C21" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="84" t="s">
+      <c r="D21" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="84"/>
+      <c r="E21" s="78"/>
       <c r="F21" s="24" t="s">
         <v>31</v>
       </c>
@@ -1990,84 +2002,84 @@
       <c r="C22" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="85" t="s">
+      <c r="D22" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="85"/>
+      <c r="E22" s="79"/>
       <c r="F22" s="26" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="2:16" ht="25.5" customHeight="1">
       <c r="B23" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="D23" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="66" t="s">
+      <c r="E23" s="67"/>
+      <c r="F23" s="29" t="s">
         <v>63</v>
-      </c>
-      <c r="E23" s="66"/>
-      <c r="F23" s="29" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="24" spans="2:16" ht="25.5" customHeight="1">
       <c r="B24" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="D24" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="66" t="s">
+      <c r="E24" s="67"/>
+      <c r="F24" s="29" t="s">
         <v>67</v>
-      </c>
-      <c r="E24" s="66"/>
-      <c r="F24" s="29" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="25.5" customHeight="1">
       <c r="B25" s="27"/>
       <c r="C25" s="28"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
       <c r="F25" s="29"/>
     </row>
     <row r="26" spans="2:16" ht="25.5" customHeight="1">
       <c r="B26" s="27"/>
       <c r="C26" s="28"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
       <c r="F26" s="29"/>
     </row>
     <row r="27" spans="2:16" ht="25.5" customHeight="1">
       <c r="B27" s="27"/>
       <c r="C27" s="28"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
       <c r="F27" s="29"/>
     </row>
     <row r="28" spans="2:16" ht="25.5" customHeight="1">
       <c r="B28" s="27"/>
       <c r="C28" s="28"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="66"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
       <c r="F28" s="29"/>
     </row>
     <row r="29" spans="2:16" ht="25.5" customHeight="1">
       <c r="B29" s="27"/>
       <c r="C29" s="28"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
       <c r="F29" s="29"/>
     </row>
     <row r="30" spans="2:16" ht="25.5" customHeight="1" thickBot="1">
       <c r="B30" s="30"/>
       <c r="C30" s="31"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
       <c r="F30" s="32"/>
     </row>
     <row r="31" spans="2:16" ht="19.899999999999999" customHeight="1" thickTop="1"/>
@@ -2078,61 +2090,61 @@
     </row>
     <row r="33" spans="1:13" ht="30" customHeight="1" thickBot="1"/>
     <row r="34" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B34" s="68" t="s">
+      <c r="B34" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="69"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="69"/>
-      <c r="F34" s="70"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="89"/>
     </row>
     <row r="35" spans="1:13" s="33" customFormat="1" ht="25.5" customHeight="1" thickTop="1">
-      <c r="B35" s="71" t="s">
-        <v>67</v>
-      </c>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="73"/>
+      <c r="B35" s="90" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="91"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="91"/>
+      <c r="F35" s="92"/>
     </row>
     <row r="36" spans="1:13" s="33" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B36" s="60" t="s">
-        <v>108</v>
-      </c>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="62"/>
+      <c r="B36" s="80" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="81"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="81"/>
+      <c r="F36" s="82"/>
       <c r="J36" s="33" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:13" s="33" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B37" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="62"/>
+      <c r="B37" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="81"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="82"/>
     </row>
     <row r="38" spans="1:13" s="33" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B38" s="60" t="s">
-        <v>109</v>
-      </c>
-      <c r="C38" s="61"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="62"/>
+      <c r="B38" s="80" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="81"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="82"/>
     </row>
     <row r="39" spans="1:13" s="33" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B39" s="63" t="s">
-        <v>110</v>
-      </c>
-      <c r="C39" s="64"/>
-      <c r="D39" s="64"/>
-      <c r="E39" s="64"/>
-      <c r="F39" s="65"/>
+      <c r="B39" s="83" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" s="84"/>
+      <c r="D39" s="84"/>
+      <c r="E39" s="84"/>
+      <c r="F39" s="85"/>
     </row>
     <row r="40" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="A40" s="33"/>
@@ -2293,12 +2305,16 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B35:F35"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="C13:F13"/>
@@ -2311,16 +2327,12 @@
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B8:F8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
@@ -2331,10 +2343,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:A34"/>
+    <sheetView topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2380,7 +2392,7 @@
         <v>55</v>
       </c>
       <c r="D3" s="51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
@@ -2388,27 +2400,27 @@
         <v>2</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>55</v>
       </c>
       <c r="D4" s="51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="54" t="s">
-        <v>73</v>
+      <c r="B5" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="49" t="s">
-        <v>72</v>
+      <c r="D5" s="51" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
@@ -2416,13 +2428,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="49" t="s">
-        <v>72</v>
+      <c r="D6" s="51" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
@@ -2430,79 +2442,79 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="49" t="s">
-        <v>72</v>
+      <c r="D7" s="51" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A8" s="8">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>76</v>
+      <c r="B8" s="54" t="s">
+        <v>70</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="51" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A9" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
+    </row>
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A10" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A11" s="8">
+        <v>7</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A9" s="8">
-        <v>7</v>
-      </c>
-      <c r="B9" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="51" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A10" s="8">
+      <c r="C11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A12" s="8">
         <v>8</v>
       </c>
-      <c r="B10" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="51" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A11" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="41"/>
-    </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A12" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>4</v>
+      <c r="B12" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="51" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
@@ -2510,13 +2522,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>55</v>
       </c>
       <c r="D13" s="51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
@@ -2524,13 +2536,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>55</v>
       </c>
       <c r="D14" s="51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
@@ -2538,27 +2550,27 @@
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>55</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A16" s="8">
         <v>12</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>82</v>
+      <c r="B16" s="54" t="s">
+        <v>89</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>55</v>
       </c>
       <c r="D16" s="51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
@@ -2566,65 +2578,65 @@
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>55</v>
       </c>
       <c r="D17" s="51" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
-      <c r="A18" s="8">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A18" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="55"/>
+      <c r="D18" s="41"/>
+    </row>
+    <row r="19" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
+      <c r="A19" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A20" s="8">
         <v>14</v>
       </c>
-      <c r="B18" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="51" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A19" s="8">
+      <c r="B20" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="51" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A21" s="8">
         <v>15</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B21" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="51" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A20" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="41"/>
-    </row>
-    <row r="21" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A21" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="38" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
@@ -2632,13 +2644,13 @@
         <v>16</v>
       </c>
       <c r="B22" s="49" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>55</v>
       </c>
       <c r="D22" s="51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
@@ -2646,13 +2658,13 @@
         <v>17</v>
       </c>
       <c r="B23" s="49" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>86</v>
+      <c r="D23" s="51" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
@@ -2660,13 +2672,13 @@
         <v>18</v>
       </c>
       <c r="B24" s="49" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D24" s="51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
@@ -2674,13 +2686,13 @@
         <v>19</v>
       </c>
       <c r="B25" s="49" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D25" s="51" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
@@ -2688,13 +2700,13 @@
         <v>20</v>
       </c>
       <c r="B26" s="49" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>54</v>
       </c>
       <c r="D26" s="51" t="s">
-        <v>60</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
@@ -2702,13 +2714,13 @@
         <v>21</v>
       </c>
       <c r="B27" s="49" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>55</v>
       </c>
       <c r="D27" s="51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
@@ -2716,7 +2728,7 @@
         <v>43</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C28" s="40"/>
       <c r="D28" s="41"/>
@@ -2740,13 +2752,13 @@
         <v>22</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>55</v>
       </c>
       <c r="D30" s="51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
@@ -2754,13 +2766,13 @@
         <v>23</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>55</v>
       </c>
       <c r="D31" s="51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
@@ -2768,13 +2780,13 @@
         <v>24</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>55</v>
       </c>
       <c r="D32" s="51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
@@ -2782,13 +2794,13 @@
         <v>25</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>55</v>
       </c>
       <c r="D33" s="51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
@@ -2796,40 +2808,29 @@
         <v>26</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>55</v>
       </c>
       <c r="D34" s="51" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-    </row>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1"/>
+    <row r="36" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1"/>
     <row r="37" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A37" s="2"/>
       <c r="B37"/>
       <c r="C37" s="4"/>
       <c r="D37"/>
     </row>
-    <row r="38" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
+    <row r="38" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
       <c r="A38" s="2"/>
       <c r="B38"/>
-      <c r="C38" s="4"/>
       <c r="D38"/>
     </row>
-    <row r="39" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
+    <row r="39" spans="1:4" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A39" s="2"/>
       <c r="B39"/>
       <c r="C39" s="4"/>
@@ -2907,12 +2908,13 @@
       <c r="C51" s="4"/>
       <c r="D51"/>
     </row>
-    <row r="52" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
+    <row r="52" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A52" s="2"/>
       <c r="B52"/>
+      <c r="C52" s="4"/>
       <c r="D52"/>
     </row>
-    <row r="53" spans="1:4" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="53" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A53" s="2"/>
       <c r="B53"/>
       <c r="C53" s="4"/>
@@ -2924,13 +2926,12 @@
       <c r="C54" s="4"/>
       <c r="D54"/>
     </row>
-    <row r="55" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
+    <row r="55" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
       <c r="A55" s="2"/>
       <c r="B55"/>
-      <c r="C55" s="4"/>
       <c r="D55"/>
     </row>
-    <row r="56" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
+    <row r="56" spans="1:4" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A56" s="2"/>
       <c r="B56"/>
       <c r="C56" s="4"/>
@@ -3008,20 +3009,38 @@
       <c r="C68" s="4"/>
       <c r="D68"/>
     </row>
-    <row r="69" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
+    <row r="69" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A69" s="2"/>
       <c r="B69"/>
+      <c r="C69" s="4"/>
       <c r="D69"/>
     </row>
-    <row r="70" spans="1:4" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="70" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A70" s="2"/>
       <c r="B70"/>
       <c r="C70" s="4"/>
       <c r="D70"/>
     </row>
+    <row r="71" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A71" s="2"/>
+      <c r="B71"/>
+      <c r="C71" s="4"/>
+      <c r="D71"/>
+    </row>
+    <row r="72" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
+      <c r="A72" s="2"/>
+      <c r="B72"/>
+      <c r="D72"/>
+    </row>
+    <row r="73" spans="1:4" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A73" s="2"/>
+      <c r="B73"/>
+      <c r="C73" s="4"/>
+      <c r="D73"/>
+    </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22:C27 C13:C19 C30:C34 C3:C10">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20:C27 C30:C34 C3:C8 C11:C17">
       <formula1>"Cumple, No Cumple"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3032,10 +3051,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:A37"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3065,7 +3084,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>55</v>
@@ -3080,13 +3099,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>55</v>
       </c>
       <c r="D3" s="49" t="str">
-        <f t="shared" ref="D3:D37" si="0">IF(C3="Cumple","Ninguna","")</f>
+        <f t="shared" ref="D3:D38" si="0">IF(C3="Cumple","Ninguna","")</f>
         <v>Ninguna</v>
       </c>
     </row>
@@ -3095,7 +3114,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="56" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>55</v>
@@ -3110,7 +3129,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>55</v>
@@ -3125,7 +3144,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>55</v>
@@ -3140,7 +3159,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>55</v>
@@ -3155,7 +3174,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="57" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>55</v>
@@ -3190,7 +3209,7 @@
         <v>54</v>
       </c>
       <c r="D10" s="52" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
@@ -3219,7 +3238,7 @@
         <v>55</v>
       </c>
       <c r="D12" s="52" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
@@ -3227,42 +3246,41 @@
         <v>11</v>
       </c>
       <c r="B13" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="52" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
+      <c r="A14" s="8">
+        <v>12</v>
+      </c>
+      <c r="B14" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="52" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
-      <c r="A14" s="38" t="s">
+      <c r="C14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="52" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
+      <c r="A15" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B15" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C15" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="58" t="s">
+      <c r="D15" s="58" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
-      <c r="A15" s="8">
-        <v>12</v>
-      </c>
-      <c r="B15" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>Ninguna</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
@@ -3270,7 +3288,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>55</v>
@@ -3281,40 +3299,40 @@
       </c>
     </row>
     <row r="17" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
-      <c r="A17" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="58" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A18" s="8">
+      <c r="A17" s="8">
         <v>14</v>
       </c>
-      <c r="B18" s="49" t="s">
-        <v>112</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="49" t="str">
+      <c r="B17" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="49" t="str">
         <f t="shared" si="0"/>
         <v>Ninguna</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
+    <row r="18" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
+      <c r="A18" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A19" s="8">
         <v>15</v>
       </c>
       <c r="B19" s="49" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>55</v>
@@ -3325,32 +3343,32 @@
       </c>
     </row>
     <row r="20" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
-      <c r="A20" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="58" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
-      <c r="A21" s="8">
+      <c r="A20" s="8">
         <v>16</v>
       </c>
-      <c r="B21" s="49" t="s">
-        <v>114</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="49" t="str">
+      <c r="B20" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="49" t="str">
         <f t="shared" si="0"/>
         <v>Ninguna</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
+      <c r="A21" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="58" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
@@ -3358,7 +3376,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="49" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>55</v>
@@ -3373,7 +3391,7 @@
         <v>18</v>
       </c>
       <c r="B23" s="49" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>55</v>
@@ -3384,32 +3402,32 @@
       </c>
     </row>
     <row r="24" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
-      <c r="A24" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="58" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
-      <c r="A25" s="8">
+      <c r="A24" s="8">
         <v>19</v>
       </c>
-      <c r="B25" s="49" t="s">
-        <v>117</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="49" t="str">
+      <c r="B24" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="49" t="str">
         <f t="shared" si="0"/>
         <v>Ninguna</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
+      <c r="A25" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="58" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
@@ -3417,7 +3435,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="49" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>55</v>
@@ -3427,33 +3445,33 @@
         <v>Ninguna</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A27" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="58" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
-      <c r="A28" s="8">
+    <row r="27" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
+      <c r="A27" s="8">
         <v>21</v>
       </c>
-      <c r="B28" s="49" t="s">
-        <v>119</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="49" t="str">
+      <c r="B27" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="49" t="str">
         <f t="shared" si="0"/>
         <v>Ninguna</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A28" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="58" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
@@ -3461,7 +3479,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="49" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>55</v>
@@ -3476,7 +3494,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="49" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>55</v>
@@ -3491,7 +3509,7 @@
         <v>24</v>
       </c>
       <c r="B31" s="49" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>55</v>
@@ -3501,12 +3519,12 @@
         <v>Ninguna</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="30" customHeight="1">
+    <row r="32" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
       <c r="A32" s="8">
         <v>25</v>
       </c>
       <c r="B32" s="49" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>55</v>
@@ -3517,40 +3535,40 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="30" customHeight="1">
-      <c r="A33" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="58" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A34" s="8">
+      <c r="A33" s="8">
         <v>26</v>
       </c>
-      <c r="B34" s="49" t="s">
-        <v>124</v>
-      </c>
-      <c r="C34" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="D34" s="49" t="str">
+      <c r="B33" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="49" t="str">
         <f t="shared" si="0"/>
         <v>Ninguna</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="30" customHeight="1">
+    <row r="34" spans="1:4" ht="30" customHeight="1">
+      <c r="A34" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A35" s="8">
         <v>27</v>
       </c>
       <c r="B35" s="49" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C35" s="59" t="s">
         <v>55</v>
@@ -3565,7 +3583,7 @@
         <v>28</v>
       </c>
       <c r="B36" s="49" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C36" s="59" t="s">
         <v>55</v>
@@ -3580,7 +3598,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="49" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C37" s="59" t="s">
         <v>55</v>
@@ -3590,8 +3608,22 @@
         <v>Ninguna</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="3" customFormat="1" ht="30" customHeight="1"/>
-    <row r="39" spans="1:4" ht="30" customHeight="1"/>
+    <row r="38" spans="1:4" ht="30" customHeight="1">
+      <c r="A38" s="8">
+        <v>30</v>
+      </c>
+      <c r="B38" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>Ninguna</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" s="3" customFormat="1" ht="30" customHeight="1"/>
     <row r="40" spans="1:4" ht="30" customHeight="1"/>
     <row r="41" spans="1:4" ht="30" customHeight="1"/>
     <row r="42" spans="1:4" ht="30" customHeight="1"/>
@@ -3601,12 +3633,12 @@
     <row r="46" spans="1:4" ht="30" customHeight="1"/>
     <row r="47" spans="1:4" ht="30" customHeight="1"/>
     <row r="48" spans="1:4" ht="30" customHeight="1"/>
-    <row r="49" spans="1:4" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A49" s="2"/>
-      <c r="B49" s="50"/>
-      <c r="D49"/>
-    </row>
-    <row r="50" spans="1:4" ht="30" customHeight="1"/>
+    <row r="49" spans="1:4" ht="30" customHeight="1"/>
+    <row r="50" spans="1:4" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A50" s="2"/>
+      <c r="B50" s="50"/>
+      <c r="D50"/>
+    </row>
     <row r="51" spans="1:4" ht="30" customHeight="1"/>
     <row r="52" spans="1:4" ht="30" customHeight="1"/>
     <row r="53" spans="1:4" ht="30" customHeight="1"/>
@@ -3616,19 +3648,20 @@
     <row r="57" spans="1:4" ht="30" customHeight="1"/>
     <row r="58" spans="1:4" ht="30" customHeight="1"/>
     <row r="59" spans="1:4" ht="30" customHeight="1"/>
-    <row r="60" spans="1:4" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A60" s="2"/>
-      <c r="B60" s="50"/>
-      <c r="D60"/>
-    </row>
-    <row r="61" spans="1:4" ht="30" customHeight="1"/>
+    <row r="60" spans="1:4" ht="30" customHeight="1"/>
+    <row r="61" spans="1:4" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A61" s="2"/>
+      <c r="B61" s="50"/>
+      <c r="D61"/>
+    </row>
     <row r="62" spans="1:4" ht="30" customHeight="1"/>
     <row r="63" spans="1:4" ht="30" customHeight="1"/>
     <row r="64" spans="1:4" ht="30" customHeight="1"/>
     <row r="65" ht="30" customHeight="1"/>
+    <row r="66" ht="30" customHeight="1"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C28:C32 C2:C8 C18:C19 C15:C16 C21:C23 C25:C26 C10:C13 C34:C37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C29:C33 C2:C8 C19:C20 C16:C17 C22:C24 C26:C27 C10:C14 C35:C38">
       <formula1>"Cumple, No Cumple"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3641,8 +3674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3681,14 +3714,16 @@
         <v>41</v>
       </c>
       <c r="C2" s="5">
+        <f>COUNT('Requisitos Funcionales'!A:A)</f>
         <v>26</v>
       </c>
       <c r="D2" s="5">
-        <v>25</v>
+        <f>COUNTIF('Requisitos Funcionales'!C:C,"Cumple")</f>
+        <v>22</v>
       </c>
       <c r="E2" s="47">
         <f>D2/C2%</f>
-        <v>96.153846153846146</v>
+        <v>84.615384615384613</v>
       </c>
       <c r="F2" s="94"/>
     </row>
@@ -3701,7 +3736,7 @@
       </c>
       <c r="C3" s="5">
         <f>COUNT('Requisitos No Funcionales'!A:A)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" s="5">
         <f>COUNTIF('Requisitos No Funcionales'!C:C,"Cumple")</f>
@@ -3709,26 +3744,26 @@
       </c>
       <c r="E3" s="47">
         <f t="shared" ref="E3:E4" si="0">D3/C3%</f>
-        <v>96.551724137931046</v>
+        <v>93.333333333333343</v>
       </c>
       <c r="F3" s="94"/>
     </row>
     <row r="4" spans="1:6" s="4" customFormat="1">
       <c r="C4" s="45">
         <f>SUM(C2:C3)</f>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D4" s="45">
         <f>SUM(D2:D3)</f>
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E4" s="48">
         <f t="shared" si="0"/>
-        <v>96.36363636363636</v>
+        <v>89.285714285714278</v>
       </c>
       <c r="F4" s="5" t="str">
         <f>IF(E4&gt;=90,"APROBADO",IF(AND(E4&gt;=70,E4&lt;90),"CORREGIR","NO APROBADO"))</f>
-        <v>APROBADO</v>
+        <v>CORREGIR</v>
       </c>
     </row>
   </sheetData>
